--- a/results/I1_S4_res.xlsx
+++ b/results/I1_S4_res.xlsx
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9552.026549116861</v>
+        <v>9550.798378897811</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1913.292999982834</v>
+        <v>36000.08800005913</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -498,7 +498,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.995154990818764</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -506,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>71.68635875864793</v>
+        <v>71.34555914466226</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -514,7 +514,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>48.79588576326008</v>
+        <v>48.75756002558921</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -522,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>12.75607612137507</v>
+        <v>13.05855001230328</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8803.040000000097</v>
+        <v>8986.811829766433</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>713.34</v>
+        <v>528.3399999999999</v>
       </c>
     </row>
   </sheetData>
@@ -567,7 +567,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -759,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -770,7 +770,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -781,10 +781,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.9999917049018632</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -792,10 +792,10 @@
         <v>6</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.9999917092349466</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -803,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -814,7 +814,7 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -970,7 +970,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1051,7 +1051,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.05428867340197</v>
+        <v>34.26478073742413</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1059,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>15.48543126605367</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1075,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>34.41575588093363</v>
+        <v>36.98099133308861</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1083,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.397881874109032</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1091,7 +1091,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15</v>
+        <v>22.73907173136486</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1099,7 +1099,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.91480702620257</v>
+        <v>27.66547016737213</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1107,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.20140815564504</v>
+        <v>33.79859184435496</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>24.75066314116954</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1216,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1272,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1286,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1300,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1311,10 +1311,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1325,10 +1325,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1339,10 +1339,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1353,10 +1353,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1367,10 +1367,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1395,10 +1395,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1437,10 +1437,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -1451,72 +1451,72 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.999991706689742</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.999991706689742</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>3</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0.999991706689742</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.999991706689742</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.999991707189492</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1524,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1538,7 +1538,7 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -1552,7 +1552,7 @@
         <v>7</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -1566,7 +1566,7 @@
         <v>7</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1580,7 +1580,7 @@
         <v>7</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -1594,7 +1594,7 @@
         <v>8</v>
       </c>
       <c r="B32">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -1622,7 +1622,7 @@
         <v>8</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -1636,7 +1636,7 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1650,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1664,7 +1664,7 @@
         <v>9</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1678,7 +1678,7 @@
         <v>9</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1692,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1706,7 +1706,7 @@
         <v>9</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1720,7 +1720,7 @@
         <v>9</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>542.2699999999904</v>
+        <v>209.9599999999961</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1897,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>552.2800000000225</v>
+        <v>220.0499999999942</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1908,7 +1908,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>487.7700000000233</v>
+        <v>181.8799999999972</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1919,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>500.2100000000311</v>
+        <v>207.7599999999951</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1930,7 +1930,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>487.8</v>
+        <v>208.4599999999934</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1941,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>317.9599999999991</v>
+        <v>527.0500000000524</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>345.1099999999942</v>
+        <v>546.69000000005</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1963,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>302.6099999999969</v>
+        <v>496.390000000036</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1974,7 +1974,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>312.029999999997</v>
+        <v>529.3600000000517</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1985,7 +1985,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>300.35</v>
+        <v>503.710000000054</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1996,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>103.65</v>
+        <v>100.7499999999945</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2007,7 +2007,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>120.0299999999934</v>
+        <v>108.7399999999943</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>126.7799999999916</v>
+        <v>100.8199999999997</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2029,7 +2029,7 @@
         <v>4</v>
       </c>
       <c r="C20">
-        <v>111.7</v>
+        <v>107.0899999999947</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2040,7 +2040,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>115.9699999999921</v>
+        <v>108.989999999998</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2051,7 +2051,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>117.5199999999986</v>
+        <v>117.519999999995</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2062,7 +2062,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>120.6799999999967</v>
+        <v>120.679999999993</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2073,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>108.35</v>
+        <v>108.3499999999967</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2084,7 +2084,7 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>120.0099999999984</v>
+        <v>120.0099999999948</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2095,7 +2095,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>113.75</v>
+        <v>113.7499999999927</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>674.3</v>
+        <v>659.0799999999672</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -2117,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>672.0300000000361</v>
+        <v>666.4399999999714</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -2128,7 +2128,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>604.9600000000355</v>
+        <v>613.5799999999745</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>627.6300000000429</v>
+        <v>656.7799999999734</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -2150,7 +2150,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>597.3</v>
+        <v>613.2099999999737</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2161,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>84.25</v>
+        <v>121.6700000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -2172,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>97.28000000000065</v>
+        <v>126.239999999998</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -2183,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>93.96000000000095</v>
+        <v>105.9699999999993</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>92.34000000000196</v>
+        <v>117.2900000000009</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2205,7 +2205,7 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>89.29000000000087</v>
+        <v>105.6599999999999</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>206.9600000000009</v>
+        <v>223.4600000000064</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2227,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>220.0699999999997</v>
+        <v>231.5300000000061</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2238,7 +2238,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>192.4599999999991</v>
+        <v>199.3199999999943</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2249,7 +2249,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>197.7200000000012</v>
+        <v>212.470000000003</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2260,7 +2260,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>199.4099999999999</v>
+        <v>219.1100000000061</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>301.3699999999899</v>
+        <v>391.2200000000432</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -2282,7 +2282,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>312.4899999999907</v>
+        <v>412.9400000000407</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>298.7899999999992</v>
+        <v>377.8500000000259</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2304,7 +2304,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>328.3</v>
+        <v>405.1700000000421</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2315,7 +2315,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>306.2199999999903</v>
+        <v>380.4100000000455</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>449.8299999999899</v>
+        <v>352.82</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -2337,7 +2337,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>452.9100000000217</v>
+        <v>336.89</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -2348,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>414.2400000000226</v>
+        <v>293.78</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -2359,7 +2359,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>412.4600000000311</v>
+        <v>313.15</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -2370,7 +2370,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>393.0900000000231</v>
+        <v>311.46</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -2381,7 +2381,7 @@
         <v>1</v>
       </c>
       <c r="C52">
-        <v>202.6899999999932</v>
+        <v>301.4000000000143</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -2392,7 +2392,7 @@
         <v>2</v>
       </c>
       <c r="C53">
-        <v>209.3799999999956</v>
+        <v>311.2100000000156</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="C54">
-        <v>202.65</v>
+        <v>282.220000000003</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -2414,7 +2414,7 @@
         <v>4</v>
       </c>
       <c r="C55">
-        <v>214.4599999999955</v>
+        <v>297.8100000000123</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -2425,7 +2425,7 @@
         <v>5</v>
       </c>
       <c r="C56">
-        <v>200.9199999999946</v>
+        <v>288.5400000000155</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2436,7 +2436,7 @@
         <v>1</v>
       </c>
       <c r="C57">
-        <v>301.3699999999844</v>
+        <v>659.0398186402772</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -2447,7 +2447,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>312.4899999999852</v>
+        <v>666.3998186402819</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="C59">
-        <v>298.7900000000074</v>
+        <v>613.5398186402853</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2469,7 +2469,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>328.3</v>
+        <v>656.7398186402843</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2480,7 +2480,7 @@
         <v>5</v>
       </c>
       <c r="C61">
-        <v>306.2199999999848</v>
+        <v>613.1698186402847</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>674.3</v>
+        <v>352.8200000000725</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2502,7 +2502,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>672.0300000000462</v>
+        <v>336.8900000000631</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2513,7 +2513,7 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>604.9600000000456</v>
+        <v>293.7800000000461</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -2524,7 +2524,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>627.630000000053</v>
+        <v>313.1500000000706</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2535,7 +2535,7 @@
         <v>5</v>
       </c>
       <c r="C66">
-        <v>597.3</v>
+        <v>311.4600000000464</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2546,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="C67">
-        <v>103.65</v>
+        <v>121.5874956122797</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -2557,7 +2557,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>120.0299999999934</v>
+        <v>126.1575865619689</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="C69">
-        <v>126.7799999999916</v>
+        <v>105.887211570668</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -2579,7 +2579,7 @@
         <v>4</v>
       </c>
       <c r="C70">
-        <v>111.7</v>
+        <v>117.2072453969896</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2590,7 +2590,7 @@
         <v>5</v>
       </c>
       <c r="C71">
-        <v>115.9699999999921</v>
+        <v>105.5772825396165</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>241.3699999999808</v>
+        <v>599.0398186402772</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2636,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>252.4899999999816</v>
+        <v>606.3998186402819</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2647,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>238.7900000000054</v>
+        <v>553.5398186402853</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2658,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>268.3</v>
+        <v>596.7398186402843</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2669,7 +2669,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>246.2199999999812</v>
+        <v>553.1698186402847</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2680,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>614.3</v>
+        <v>292.8200000000688</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2691,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>612.0300000000389</v>
+        <v>276.8900000000594</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2702,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>544.9600000000382</v>
+        <v>233.7800000000425</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2713,7 +2713,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>567.6300000000456</v>
+        <v>253.1500000000669</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2724,7 +2724,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>537.3</v>
+        <v>251.4600000000428</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>43.65</v>
+        <v>61.58749561227968</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2746,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>60.02999999999338</v>
+        <v>66.15758656196887</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2757,7 +2757,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>66.77999999999156</v>
+        <v>45.88721157066797</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2768,7 +2768,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>51.7</v>
+        <v>57.20724539698963</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2779,7 +2779,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>55.96999999999207</v>
+        <v>45.57728253961646</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +2869,7 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>24.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2880,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>8.710000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2891,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>8.390000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2902,7 +2902,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>9.880000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2913,7 +2913,7 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>22.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2924,7 +2924,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -2935,7 +2935,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>11.29</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2946,7 +2946,7 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>25.96</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2957,7 +2957,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2968,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>37.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3100,7 +3100,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>28.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -3111,7 +3111,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>12.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -3122,7 +3122,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>24.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3133,7 +3133,7 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>16.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3199,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3210,7 +3210,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -3221,7 +3221,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -3232,7 +3232,7 @@
         <v>4</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6.48</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -3243,7 +3243,7 @@
         <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>13.43</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -3254,7 +3254,7 @@
         <v>1</v>
       </c>
       <c r="C42">
-        <v>10.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -3265,7 +3265,7 @@
         <v>2</v>
       </c>
       <c r="C43">
-        <v>9.039999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -3276,7 +3276,7 @@
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -3287,7 +3287,7 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>4.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3298,7 +3298,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>10.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>7.23</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -3320,7 +3320,7 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>9.02</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3331,7 +3331,7 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -3342,7 +3342,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -3353,7 +3353,7 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>17.74</v>
       </c>
     </row>
   </sheetData>
